--- a/Code/Results/Cases/Case_4_104/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_104/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.32199796681849</v>
+        <v>10.95798036489552</v>
       </c>
       <c r="C2">
-        <v>8.523954729913388</v>
+        <v>6.778798356056</v>
       </c>
       <c r="D2">
-        <v>12.14070843702653</v>
+        <v>15.04880060961699</v>
       </c>
       <c r="E2">
-        <v>13.13726181020665</v>
+        <v>16.4729647258361</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.114523345766727</v>
+        <v>3.687444081314091</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.06430361680775</v>
+        <v>25.8528698636452</v>
       </c>
       <c r="J2">
-        <v>5.909850119173108</v>
+        <v>9.41152566838297</v>
       </c>
       <c r="K2">
-        <v>12.17723648678016</v>
+        <v>11.54045547095927</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.69772716949269</v>
+        <v>29.04172500636703</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.44076995377672</v>
+        <v>10.70636533411506</v>
       </c>
       <c r="C3">
-        <v>7.946456597978922</v>
+        <v>6.609163136605951</v>
       </c>
       <c r="D3">
-        <v>11.63899492366525</v>
+        <v>14.9888626809102</v>
       </c>
       <c r="E3">
-        <v>12.60449613121263</v>
+        <v>16.41335940663106</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.120521254093415</v>
+        <v>3.689656741107035</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.18025228719985</v>
+        <v>25.94345657797771</v>
       </c>
       <c r="J3">
-        <v>5.821437853718765</v>
+        <v>9.419584828567949</v>
       </c>
       <c r="K3">
-        <v>11.41107366771254</v>
+        <v>11.37637839648652</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.64101592639071</v>
+        <v>29.11715507499949</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.86850951442707</v>
+        <v>10.5509039793706</v>
       </c>
       <c r="C4">
-        <v>7.57173239006135</v>
+        <v>6.504108955576851</v>
       </c>
       <c r="D4">
-        <v>11.32800069735724</v>
+        <v>14.95535291444177</v>
       </c>
       <c r="E4">
-        <v>12.27491754875398</v>
+        <v>16.38039660073805</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.124312004785279</v>
+        <v>3.691087016290683</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.26453489011692</v>
+        <v>26.00386094943715</v>
       </c>
       <c r="J4">
-        <v>5.76973596411527</v>
+        <v>9.425947144675961</v>
       </c>
       <c r="K4">
-        <v>10.91480008107322</v>
+        <v>11.27652650288468</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.62267905315421</v>
+        <v>29.16939919066404</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.62742640977181</v>
+        <v>10.48740313412078</v>
       </c>
       <c r="C5">
-        <v>7.413925561192023</v>
+        <v>6.461138320374546</v>
       </c>
       <c r="D5">
-        <v>11.20070818277297</v>
+        <v>14.94253554590469</v>
       </c>
       <c r="E5">
-        <v>12.14018188489668</v>
+        <v>16.36788781076492</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.125884724259328</v>
+        <v>3.691687951790396</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.30202582165708</v>
+        <v>26.02967731591003</v>
       </c>
       <c r="J5">
-        <v>5.749321038972264</v>
+        <v>9.428895572740412</v>
       </c>
       <c r="K5">
-        <v>10.70606032609387</v>
+        <v>11.23610883645784</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.61919306045228</v>
+        <v>29.1921767601515</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.58691755070055</v>
+        <v>10.47685268960708</v>
       </c>
       <c r="C6">
-        <v>7.387412472868935</v>
+        <v>6.453995371599497</v>
       </c>
       <c r="D6">
-        <v>11.17954318557659</v>
+        <v>14.94045813126051</v>
       </c>
       <c r="E6">
-        <v>12.11778908161136</v>
+        <v>16.36586679517717</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.12614758429909</v>
+        <v>3.691788830800717</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.30843696986964</v>
+        <v>26.03403659365874</v>
       </c>
       <c r="J6">
-        <v>5.745970761102295</v>
+        <v>9.429406646137316</v>
       </c>
       <c r="K6">
-        <v>10.67100647534522</v>
+        <v>11.22941540184484</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.61885031407157</v>
+        <v>29.19604870634345</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.86529015019156</v>
+        <v>10.55004806107288</v>
       </c>
       <c r="C7">
-        <v>7.569624868275489</v>
+        <v>6.503529998638655</v>
       </c>
       <c r="D7">
-        <v>11.32628600064907</v>
+        <v>14.95517664861507</v>
       </c>
       <c r="E7">
-        <v>12.27310193231197</v>
+        <v>16.38022415025452</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.124333100802242</v>
+        <v>3.691095047406124</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.26502795995848</v>
+        <v>26.00420425724704</v>
       </c>
       <c r="J7">
-        <v>5.769457988309061</v>
+        <v>9.425985467678668</v>
       </c>
       <c r="K7">
-        <v>10.91201127806996</v>
+        <v>11.275980247708</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.62261610973427</v>
+        <v>29.16970035811271</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.02459645060337</v>
+        <v>10.87148018020191</v>
       </c>
       <c r="C8">
-        <v>8.328988555741748</v>
+        <v>6.720532776289271</v>
       </c>
       <c r="D8">
-        <v>11.96842906201169</v>
+        <v>15.02745714217443</v>
       </c>
       <c r="E8">
-        <v>12.95418096183617</v>
+        <v>16.4516645241537</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.116569500147221</v>
+        <v>3.68819216203753</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.10147572049427</v>
+        <v>25.88311020318371</v>
       </c>
       <c r="J8">
-        <v>5.878832252149269</v>
+        <v>9.414011128866285</v>
       </c>
       <c r="K8">
-        <v>11.91842177409284</v>
+        <v>11.48372565518617</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.67465702935086</v>
+        <v>29.06650057314192</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.05264159592985</v>
+        <v>11.49015743090058</v>
       </c>
       <c r="C9">
-        <v>9.660190602267765</v>
+        <v>7.136233297770364</v>
       </c>
       <c r="D9">
-        <v>13.19755869544079</v>
+        <v>15.19482502058606</v>
       </c>
       <c r="E9">
-        <v>14.26311529311184</v>
+        <v>16.62012416207541</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.102163796478744</v>
+        <v>3.68306577535416</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.89153361699243</v>
+        <v>25.6836831462692</v>
       </c>
       <c r="J9">
-        <v>6.113591939908639</v>
+        <v>9.401738602783984</v>
       </c>
       <c r="K9">
-        <v>13.68766175965196</v>
+        <v>11.89606372772888</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.91448872918703</v>
+        <v>28.91132257459875</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.39621563322032</v>
+        <v>11.93259591603981</v>
       </c>
       <c r="C10">
-        <v>10.5446917468537</v>
+        <v>7.432251781077821</v>
       </c>
       <c r="D10">
-        <v>14.07475887341262</v>
+        <v>15.33268066542487</v>
       </c>
       <c r="E10">
-        <v>15.20061694717366</v>
+        <v>16.76047493374503</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.09202199824333</v>
+        <v>3.679640799966627</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.81487867108451</v>
+        <v>25.56046329855154</v>
       </c>
       <c r="J10">
-        <v>6.298128008635982</v>
+        <v>9.399538784449399</v>
       </c>
       <c r="K10">
-        <v>14.86462772741846</v>
+        <v>12.19920254372831</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.18407111629709</v>
+        <v>28.82627665522581</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.97639541870602</v>
+        <v>12.13028393844628</v>
       </c>
       <c r="C11">
-        <v>10.92739673284619</v>
+        <v>7.564234943062457</v>
       </c>
       <c r="D11">
-        <v>14.46707254405382</v>
+        <v>15.39845280870893</v>
       </c>
       <c r="E11">
-        <v>15.62065709901193</v>
+        <v>16.82775330478468</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.087490593873921</v>
+        <v>3.678156015753553</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.79918328200359</v>
+        <v>25.50949013049784</v>
       </c>
       <c r="J11">
-        <v>6.38463776118425</v>
+        <v>9.400013068760385</v>
       </c>
       <c r="K11">
-        <v>15.37388014107757</v>
+        <v>12.33656749211568</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.32894250458707</v>
+        <v>28.79391298961574</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.19169906037381</v>
+        <v>12.20455563639313</v>
       </c>
       <c r="C12">
-        <v>11.06954489806519</v>
+        <v>7.613780359520704</v>
       </c>
       <c r="D12">
-        <v>14.61459697440631</v>
+        <v>15.42378307584074</v>
       </c>
       <c r="E12">
-        <v>15.77871938456531</v>
+        <v>16.85370747827238</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.085785266048714</v>
+        <v>3.677604239609629</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.79620067861822</v>
+        <v>25.49092042421379</v>
       </c>
       <c r="J12">
-        <v>6.417761246546087</v>
+        <v>9.400404158963742</v>
       </c>
       <c r="K12">
-        <v>15.56300821169543</v>
+        <v>12.38846014689001</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.38715565012866</v>
+        <v>28.78256974990783</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.14552412604861</v>
+        <v>12.18858718566719</v>
       </c>
       <c r="C13">
-        <v>11.03905323993183</v>
+        <v>7.603129892485256</v>
       </c>
       <c r="D13">
-        <v>14.5828719128286</v>
+        <v>15.41830917029063</v>
       </c>
       <c r="E13">
-        <v>15.74472314416821</v>
+        <v>16.8480968209329</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.086152086779682</v>
+        <v>3.677722609262996</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.7967080169607</v>
+        <v>25.49488711961091</v>
       </c>
       <c r="J13">
-        <v>6.41061137220804</v>
+        <v>9.40031053539736</v>
       </c>
       <c r="K13">
-        <v>15.52244051300143</v>
+        <v>12.37729041228503</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.37446680019147</v>
+        <v>28.78497210867652</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.99419634599072</v>
+        <v>12.13640651246102</v>
       </c>
       <c r="C14">
-        <v>10.93914662641791</v>
+        <v>7.568320032284132</v>
       </c>
       <c r="D14">
-        <v>14.47923055645182</v>
+        <v>15.40052834819898</v>
       </c>
       <c r="E14">
-        <v>15.63368131388584</v>
+        <v>16.82987909999256</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.087350089938567</v>
+        <v>3.678110411085608</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.7988773643753</v>
+        <v>25.50794769210209</v>
       </c>
       <c r="J14">
-        <v>6.387355573114053</v>
+        <v>9.40004100926889</v>
       </c>
       <c r="K14">
-        <v>15.38951398458291</v>
+        <v>12.34083949372885</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.33366364073424</v>
+        <v>28.79296147806065</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.90093290509358</v>
+        <v>12.10436561236422</v>
       </c>
       <c r="C15">
-        <v>10.87759132263895</v>
+        <v>7.546940122519592</v>
       </c>
       <c r="D15">
-        <v>14.41561059403042</v>
+        <v>15.38969177173466</v>
       </c>
       <c r="E15">
-        <v>15.56553326218799</v>
+        <v>16.81878188485378</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.088085246978942</v>
+        <v>3.678349314018951</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.8005979354893</v>
+        <v>25.51604315756003</v>
       </c>
       <c r="J15">
-        <v>6.373158035889624</v>
+        <v>9.39990343908822</v>
       </c>
       <c r="K15">
-        <v>15.30761035020479</v>
+        <v>12.31849465764176</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.30911184113946</v>
+        <v>28.79797406803172</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.35768060746132</v>
+        <v>11.9195980826387</v>
       </c>
       <c r="C16">
-        <v>10.51928995103086</v>
+        <v>7.423568239393831</v>
       </c>
       <c r="D16">
-        <v>14.04897851582025</v>
+        <v>15.32844251249985</v>
       </c>
       <c r="E16">
-        <v>15.17303015888631</v>
+        <v>16.75614582951967</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.092319689053821</v>
+        <v>3.679739303505493</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.81630745903058</v>
+        <v>25.56389692972532</v>
       </c>
       <c r="J16">
-        <v>6.292525558266828</v>
+        <v>9.399537419155218</v>
       </c>
       <c r="K16">
-        <v>14.83082440013874</v>
+        <v>12.1902105611477</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.17506426700841</v>
+        <v>28.828519197673</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.01651160940589</v>
+        <v>11.80527820367828</v>
       </c>
       <c r="C17">
-        <v>10.29448531191701</v>
+        <v>7.347161930494182</v>
       </c>
       <c r="D17">
-        <v>13.82228282518869</v>
+        <v>15.29164064605943</v>
       </c>
       <c r="E17">
-        <v>14.93053566616037</v>
+        <v>16.71858841299705</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.094937599955732</v>
+        <v>3.680610740331923</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.83099808082854</v>
+        <v>25.59455639492841</v>
       </c>
       <c r="J17">
-        <v>6.243713060243645</v>
+        <v>9.399690251570449</v>
       </c>
       <c r="K17">
-        <v>14.53166376795398</v>
+        <v>12.11134117754344</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.09863744427841</v>
+        <v>28.84887946354407</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.8173566130636</v>
+        <v>11.73919158180251</v>
       </c>
       <c r="C18">
-        <v>10.16332988205546</v>
+        <v>7.302965718818657</v>
       </c>
       <c r="D18">
-        <v>13.69126286957635</v>
+        <v>15.27076232477913</v>
       </c>
       <c r="E18">
-        <v>14.79045657166641</v>
+        <v>16.69731045244664</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.096451162303133</v>
+        <v>3.681118866014219</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.84123989822552</v>
+        <v>25.61266894611461</v>
       </c>
       <c r="J18">
-        <v>6.215878877948791</v>
+        <v>9.399917032486078</v>
       </c>
       <c r="K18">
-        <v>14.35712947475216</v>
+        <v>12.06593004958062</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.05676265127109</v>
+        <v>28.86118525833803</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.74942217468233</v>
+        <v>11.71676095591777</v>
       </c>
       <c r="C19">
-        <v>10.1186029571623</v>
+        <v>7.28796037126318</v>
       </c>
       <c r="D19">
-        <v>13.6467958841051</v>
+        <v>15.26374343013705</v>
       </c>
       <c r="E19">
-        <v>14.74292725889169</v>
+        <v>16.69016224057252</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.09696500473264</v>
+        <v>3.681292095089714</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.84500934646065</v>
+        <v>25.61888358069497</v>
       </c>
       <c r="J19">
-        <v>6.206496335152221</v>
+        <v>9.400017685837792</v>
       </c>
       <c r="K19">
-        <v>14.29761047818587</v>
+        <v>12.05054793237256</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.04293769180272</v>
+        <v>28.86545391094593</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.05313177297541</v>
+        <v>11.81748275027743</v>
       </c>
       <c r="C20">
-        <v>10.31860763072299</v>
+        <v>7.355321682605277</v>
       </c>
       <c r="D20">
-        <v>13.84648079374657</v>
+        <v>15.29552845897078</v>
       </c>
       <c r="E20">
-        <v>14.95641258907178</v>
+        <v>16.72255303867869</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.094658119021326</v>
+        <v>3.680517260844827</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.82924731043064</v>
+        <v>25.59124315133201</v>
       </c>
       <c r="J20">
-        <v>6.248884279283762</v>
+        <v>9.399659613330758</v>
       </c>
       <c r="K20">
-        <v>14.5637647299554</v>
+        <v>12.11974222865718</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.10655639922415</v>
+        <v>28.84665046607943</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.03876382145097</v>
+        <v>12.15174977249047</v>
       </c>
       <c r="C21">
-        <v>10.96856646561556</v>
+        <v>7.578556672536088</v>
       </c>
       <c r="D21">
-        <v>14.50970110466653</v>
+        <v>15.40573963946376</v>
       </c>
       <c r="E21">
-        <v>15.66632454131238</v>
+        <v>16.83521726540108</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.08699792923522</v>
+        <v>3.677996220313467</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.79815815204633</v>
+        <v>25.50409158191085</v>
       </c>
       <c r="J21">
-        <v>6.394176511238917</v>
+        <v>9.400114441215152</v>
       </c>
       <c r="K21">
-        <v>15.42865814763511</v>
+        <v>12.35154976179449</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.34555627308461</v>
+        <v>28.79059002949682</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.6573291530572</v>
+        <v>12.36675220777914</v>
       </c>
       <c r="C22">
-        <v>11.37721057185337</v>
+        <v>7.721905645845268</v>
       </c>
       <c r="D22">
-        <v>14.93709627311043</v>
+        <v>15.48023105026057</v>
       </c>
       <c r="E22">
-        <v>16.12445875464152</v>
+        <v>16.91162391516815</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.082052810533737</v>
+        <v>3.676409631648926</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.79519846962655</v>
+        <v>25.45140489077476</v>
       </c>
       <c r="J22">
-        <v>6.491254849511689</v>
+        <v>9.401644068249857</v>
       </c>
       <c r="K22">
-        <v>15.97228910557424</v>
+        <v>12.50230295301295</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.52137425606441</v>
+        <v>28.75926927292727</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.32951009324298</v>
+        <v>12.25234094040163</v>
       </c>
       <c r="C23">
-        <v>11.16056813260965</v>
+        <v>7.645645825169808</v>
       </c>
       <c r="D23">
-        <v>14.70955915357479</v>
+        <v>15.44025390387617</v>
       </c>
       <c r="E23">
-        <v>15.8804960885415</v>
+        <v>16.87059598861889</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.084686928386765</v>
+        <v>3.677250855043952</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.79512031217066</v>
+        <v>25.47913316719083</v>
       </c>
       <c r="J23">
-        <v>6.439249266868146</v>
+        <v>9.400715141752194</v>
       </c>
       <c r="K23">
-        <v>15.68410507749467</v>
+        <v>12.42192674850813</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.42569087016014</v>
+        <v>28.77549830380915</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.03658518465386</v>
+        <v>11.81196619850746</v>
       </c>
       <c r="C24">
-        <v>10.30770789059145</v>
+        <v>7.35163349344325</v>
       </c>
       <c r="D24">
-        <v>13.83554303461696</v>
+        <v>15.29376990672095</v>
       </c>
       <c r="E24">
-        <v>14.94471570021486</v>
+        <v>16.72075965119455</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.09478444581659</v>
+        <v>3.680559500722518</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.83003325494845</v>
+        <v>25.592739554959</v>
       </c>
       <c r="J24">
-        <v>6.246545658214667</v>
+        <v>9.399673032124889</v>
       </c>
       <c r="K24">
-        <v>14.54925980891582</v>
+        <v>12.11594432180985</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.1029698225997</v>
+        <v>28.84765632575028</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.52995735444048</v>
+        <v>11.32457102875365</v>
       </c>
       <c r="C25">
-        <v>9.3166959212599</v>
+        <v>7.025194103123983</v>
       </c>
       <c r="D25">
-        <v>12.86912693422995</v>
+        <v>15.14687586751298</v>
       </c>
       <c r="E25">
-        <v>13.91277342695978</v>
+        <v>16.57158375756452</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.105978934955703</v>
+        <v>3.684392378059873</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.93546167184238</v>
+        <v>25.73354979375063</v>
       </c>
       <c r="J25">
-        <v>6.047943332482042</v>
+        <v>9.403860005482887</v>
       </c>
       <c r="K25">
-        <v>13.23076602186815</v>
+        <v>11.78427963935967</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.83387849844967</v>
+        <v>28.94822905914208</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_104/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_104/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.95798036489552</v>
+        <v>13.32199796681845</v>
       </c>
       <c r="C2">
-        <v>6.778798356056</v>
+        <v>8.523954729913386</v>
       </c>
       <c r="D2">
-        <v>15.04880060961699</v>
+        <v>12.14070843702659</v>
       </c>
       <c r="E2">
-        <v>16.4729647258361</v>
+        <v>13.1372618102067</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.687444081314091</v>
+        <v>2.114523345766595</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.8528698636452</v>
+        <v>17.06430361680786</v>
       </c>
       <c r="J2">
-        <v>9.41152566838297</v>
+        <v>5.909850119173106</v>
       </c>
       <c r="K2">
-        <v>11.54045547095927</v>
+        <v>12.17723648678014</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.04172500636703</v>
+        <v>19.69772716949277</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.70636533411506</v>
+        <v>12.44076995377671</v>
       </c>
       <c r="C3">
-        <v>6.609163136605951</v>
+        <v>7.946456597978867</v>
       </c>
       <c r="D3">
-        <v>14.9888626809102</v>
+        <v>11.63899492366536</v>
       </c>
       <c r="E3">
-        <v>16.41335940663106</v>
+        <v>12.60449613121272</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.689656741107035</v>
+        <v>2.120521254093817</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.94345657797771</v>
+        <v>17.18025228719998</v>
       </c>
       <c r="J3">
-        <v>9.419584828567949</v>
+        <v>5.821437853718788</v>
       </c>
       <c r="K3">
-        <v>11.37637839648652</v>
+        <v>11.41107366771252</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.11715507499949</v>
+        <v>19.64101592639079</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.5509039793706</v>
+        <v>11.86850951442712</v>
       </c>
       <c r="C4">
-        <v>6.504108955576851</v>
+        <v>7.57173239006139</v>
       </c>
       <c r="D4">
-        <v>14.95535291444177</v>
+        <v>11.32800069735713</v>
       </c>
       <c r="E4">
-        <v>16.38039660073805</v>
+        <v>12.27491754875399</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.691087016290683</v>
+        <v>2.12431200478528</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.00386094943715</v>
+        <v>17.26453489011667</v>
       </c>
       <c r="J4">
-        <v>9.425947144675961</v>
+        <v>5.769735964115312</v>
       </c>
       <c r="K4">
-        <v>11.27652650288468</v>
+        <v>10.9148000810733</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.16939919066404</v>
+        <v>19.62267905315393</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.48740313412078</v>
+        <v>11.62742640977185</v>
       </c>
       <c r="C5">
-        <v>6.461138320374546</v>
+        <v>7.413925561192008</v>
       </c>
       <c r="D5">
-        <v>14.94253554590469</v>
+        <v>11.20070818277302</v>
       </c>
       <c r="E5">
-        <v>16.36788781076492</v>
+        <v>12.14018188489666</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.691687951790396</v>
+        <v>2.125884724259326</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.02967731591003</v>
+        <v>17.30202582165692</v>
       </c>
       <c r="J5">
-        <v>9.428895572740412</v>
+        <v>5.749321038972175</v>
       </c>
       <c r="K5">
-        <v>11.23610883645784</v>
+        <v>10.70606032609393</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>29.1921767601515</v>
+        <v>19.61919306045213</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.47685268960708</v>
+        <v>11.5869175507006</v>
       </c>
       <c r="C6">
-        <v>6.453995371599497</v>
+        <v>7.387412472868887</v>
       </c>
       <c r="D6">
-        <v>14.94045813126051</v>
+        <v>11.17954318557665</v>
       </c>
       <c r="E6">
-        <v>16.36586679517717</v>
+        <v>12.11778908161136</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.691788830800717</v>
+        <v>2.12614758429909</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.03403659365874</v>
+        <v>17.30843696986965</v>
       </c>
       <c r="J6">
-        <v>9.429406646137316</v>
+        <v>5.74597076110227</v>
       </c>
       <c r="K6">
-        <v>11.22941540184484</v>
+        <v>10.67100647534524</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>29.19604870634345</v>
+        <v>19.61885031407157</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.55004806107288</v>
+        <v>11.86529015019161</v>
       </c>
       <c r="C7">
-        <v>6.503529998638655</v>
+        <v>7.569624868275571</v>
       </c>
       <c r="D7">
-        <v>14.95517664861507</v>
+        <v>11.3262860006491</v>
       </c>
       <c r="E7">
-        <v>16.38022415025452</v>
+        <v>12.27310193231191</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.691095047406124</v>
+        <v>2.124333100802374</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.00420425724704</v>
+        <v>17.26502795995825</v>
       </c>
       <c r="J7">
-        <v>9.425985467678668</v>
+        <v>5.769457988308941</v>
       </c>
       <c r="K7">
-        <v>11.275980247708</v>
+        <v>10.91201127807002</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.16970035811271</v>
+        <v>19.62261610973405</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.87148018020191</v>
+        <v>13.02459645060337</v>
       </c>
       <c r="C8">
-        <v>6.720532776289271</v>
+        <v>8.328988555741846</v>
       </c>
       <c r="D8">
-        <v>15.02745714217443</v>
+        <v>11.96842906201175</v>
       </c>
       <c r="E8">
-        <v>16.4516645241537</v>
+        <v>12.95418096183622</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.68819216203753</v>
+        <v>2.116569500147489</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.88311020318371</v>
+        <v>17.10147572049433</v>
       </c>
       <c r="J8">
-        <v>9.414011128866285</v>
+        <v>5.878832252149248</v>
       </c>
       <c r="K8">
-        <v>11.48372565518617</v>
+        <v>11.91842177409287</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.06650057314192</v>
+        <v>19.67465702935086</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.49015743090058</v>
+        <v>15.05264159592992</v>
       </c>
       <c r="C9">
-        <v>7.136233297770364</v>
+        <v>9.660190602267733</v>
       </c>
       <c r="D9">
-        <v>15.19482502058606</v>
+        <v>13.19755869544086</v>
       </c>
       <c r="E9">
-        <v>16.62012416207541</v>
+        <v>14.26311529311189</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.68306577535416</v>
+        <v>2.102163796478608</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.6836831462692</v>
+        <v>16.89153361699237</v>
       </c>
       <c r="J9">
-        <v>9.401738602783984</v>
+        <v>6.113591939908654</v>
       </c>
       <c r="K9">
-        <v>11.89606372772888</v>
+        <v>13.68766175965202</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>28.91132257459875</v>
+        <v>19.91448872918697</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.93259591603981</v>
+        <v>16.39621563322029</v>
       </c>
       <c r="C10">
-        <v>7.432251781077821</v>
+        <v>10.54469174685384</v>
       </c>
       <c r="D10">
-        <v>15.33268066542487</v>
+        <v>14.07475887341269</v>
       </c>
       <c r="E10">
-        <v>16.76047493374503</v>
+        <v>15.20061694717371</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.679640799966627</v>
+        <v>2.09202199824333</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.56046329855154</v>
+        <v>16.81487867108456</v>
       </c>
       <c r="J10">
-        <v>9.399538784449399</v>
+        <v>6.298128008635986</v>
       </c>
       <c r="K10">
-        <v>12.19920254372831</v>
+        <v>14.86462772741848</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>28.82627665522581</v>
+        <v>20.18407111629708</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.13028393844628</v>
+        <v>16.97639541870605</v>
       </c>
       <c r="C11">
-        <v>7.564234943062457</v>
+        <v>10.92739673284607</v>
       </c>
       <c r="D11">
-        <v>15.39845280870893</v>
+        <v>14.46707254405381</v>
       </c>
       <c r="E11">
-        <v>16.82775330478468</v>
+        <v>15.62065709901192</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.678156015753553</v>
+        <v>2.087490593873656</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.50949013049784</v>
+        <v>16.7991832820036</v>
       </c>
       <c r="J11">
-        <v>9.400013068760385</v>
+        <v>6.384637761184273</v>
       </c>
       <c r="K11">
-        <v>12.33656749211568</v>
+        <v>15.37388014107754</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>28.79391298961574</v>
+        <v>20.32894250458713</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.20455563639313</v>
+        <v>17.19169906037385</v>
       </c>
       <c r="C12">
-        <v>7.613780359520704</v>
+        <v>11.06954489806518</v>
       </c>
       <c r="D12">
-        <v>15.42378307584074</v>
+        <v>14.6145969744063</v>
       </c>
       <c r="E12">
-        <v>16.85370747827238</v>
+        <v>15.77871938456532</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.677604239609629</v>
+        <v>2.085785266048448</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.49092042421379</v>
+        <v>16.79620067861821</v>
       </c>
       <c r="J12">
-        <v>9.400404158963742</v>
+        <v>6.417761246546094</v>
       </c>
       <c r="K12">
-        <v>12.38846014689001</v>
+        <v>15.56300821169546</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>28.78256974990783</v>
+        <v>20.38715565012869</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.18858718566719</v>
+        <v>17.14552412604857</v>
       </c>
       <c r="C13">
-        <v>7.603129892485256</v>
+        <v>11.03905323993174</v>
       </c>
       <c r="D13">
-        <v>15.41830917029063</v>
+        <v>14.58287191282859</v>
       </c>
       <c r="E13">
-        <v>16.8480968209329</v>
+        <v>15.74472314416819</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.677722609262996</v>
+        <v>2.086152086779683</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.49488711961091</v>
+        <v>16.79670801696075</v>
       </c>
       <c r="J13">
-        <v>9.40031053539736</v>
+        <v>6.41061137220804</v>
       </c>
       <c r="K13">
-        <v>12.37729041228503</v>
+        <v>15.5224405130014</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>28.78497210867652</v>
+        <v>20.37446680019153</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.13640651246102</v>
+        <v>16.99419634599075</v>
       </c>
       <c r="C14">
-        <v>7.568320032284132</v>
+        <v>10.93914662641791</v>
       </c>
       <c r="D14">
-        <v>15.40052834819898</v>
+        <v>14.47923055645179</v>
       </c>
       <c r="E14">
-        <v>16.82987909999256</v>
+        <v>15.63368131388587</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.678110411085608</v>
+        <v>2.087350089938431</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.50794769210209</v>
+        <v>16.79887736437527</v>
       </c>
       <c r="J14">
-        <v>9.40004100926889</v>
+        <v>6.387355573114033</v>
       </c>
       <c r="K14">
-        <v>12.34083949372885</v>
+        <v>15.38951398458293</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>28.79296147806065</v>
+        <v>20.33366364073421</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.10436561236422</v>
+        <v>16.90093290509357</v>
       </c>
       <c r="C15">
-        <v>7.546940122519592</v>
+        <v>10.8775913226389</v>
       </c>
       <c r="D15">
-        <v>15.38969177173466</v>
+        <v>14.41561059403045</v>
       </c>
       <c r="E15">
-        <v>16.81878188485378</v>
+        <v>15.56553326218801</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.678349314018951</v>
+        <v>2.088085246978943</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.51604315756003</v>
+        <v>16.80059793548935</v>
       </c>
       <c r="J15">
-        <v>9.39990343908822</v>
+        <v>6.373158035889587</v>
       </c>
       <c r="K15">
-        <v>12.31849465764176</v>
+        <v>15.30761035020477</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>28.79797406803172</v>
+        <v>20.30911184113951</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.9195980826387</v>
+        <v>16.35768060746132</v>
       </c>
       <c r="C16">
-        <v>7.423568239393831</v>
+        <v>10.5192899510308</v>
       </c>
       <c r="D16">
-        <v>15.32844251249985</v>
+        <v>14.04897851582029</v>
       </c>
       <c r="E16">
-        <v>16.75614582951967</v>
+        <v>15.17303015888632</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.679739303505493</v>
+        <v>2.092319689053954</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.56389692972532</v>
+        <v>16.81630745903055</v>
       </c>
       <c r="J16">
-        <v>9.399537419155218</v>
+        <v>6.292525558266791</v>
       </c>
       <c r="K16">
-        <v>12.1902105611477</v>
+        <v>14.83082440013875</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>28.828519197673</v>
+        <v>20.17506426700838</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.80527820367828</v>
+        <v>16.01651160940589</v>
       </c>
       <c r="C17">
-        <v>7.347161930494182</v>
+        <v>10.29448531191699</v>
       </c>
       <c r="D17">
-        <v>15.29164064605943</v>
+        <v>13.82228282518874</v>
       </c>
       <c r="E17">
-        <v>16.71858841299705</v>
+        <v>14.93053566616042</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.680610740331923</v>
+        <v>2.094937599955597</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.59455639492841</v>
+        <v>16.83099808082858</v>
       </c>
       <c r="J17">
-        <v>9.399690251570449</v>
+        <v>6.243713060243662</v>
       </c>
       <c r="K17">
-        <v>12.11134117754344</v>
+        <v>14.53166376795398</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>28.84887946354407</v>
+        <v>20.09863744427842</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.73919158180251</v>
+        <v>15.81735661306362</v>
       </c>
       <c r="C18">
-        <v>7.302965718818657</v>
+        <v>10.16332988205549</v>
       </c>
       <c r="D18">
-        <v>15.27076232477913</v>
+        <v>13.69126286957636</v>
       </c>
       <c r="E18">
-        <v>16.69731045244664</v>
+        <v>14.79045657166639</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.681118866014219</v>
+        <v>2.096451162303399</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.61266894611461</v>
+        <v>16.84123989822566</v>
       </c>
       <c r="J18">
-        <v>9.399917032486078</v>
+        <v>6.215878877948828</v>
       </c>
       <c r="K18">
-        <v>12.06593004958062</v>
+        <v>14.35712947475215</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>28.86118525833803</v>
+        <v>20.05676265127122</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.71676095591777</v>
+        <v>15.7494221746825</v>
       </c>
       <c r="C19">
-        <v>7.28796037126318</v>
+        <v>10.11860295716215</v>
       </c>
       <c r="D19">
-        <v>15.26374343013705</v>
+        <v>13.64679588410501</v>
       </c>
       <c r="E19">
-        <v>16.69016224057252</v>
+        <v>14.74292725889163</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.681292095089714</v>
+        <v>2.096965004732508</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.61888358069497</v>
+        <v>16.84500934646039</v>
       </c>
       <c r="J19">
-        <v>9.400017685837792</v>
+        <v>6.206496335152225</v>
       </c>
       <c r="K19">
-        <v>12.05054793237256</v>
+        <v>14.29761047818595</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>28.86545391094593</v>
+        <v>20.04293769180254</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.81748275027743</v>
+        <v>16.05313177297543</v>
       </c>
       <c r="C20">
-        <v>7.355321682605277</v>
+        <v>10.318607630723</v>
       </c>
       <c r="D20">
-        <v>15.29552845897078</v>
+        <v>13.84648079374662</v>
       </c>
       <c r="E20">
-        <v>16.72255303867869</v>
+        <v>14.9564125890718</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.680517260844827</v>
+        <v>2.094658119021862</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.59124315133201</v>
+        <v>16.82924731043065</v>
       </c>
       <c r="J20">
-        <v>9.399659613330758</v>
+        <v>6.248884279283731</v>
       </c>
       <c r="K20">
-        <v>12.11974222865718</v>
+        <v>14.56376472995541</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>28.84665046607943</v>
+        <v>20.10655639922415</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.15174977249047</v>
+        <v>17.03876382145091</v>
       </c>
       <c r="C21">
-        <v>7.578556672536088</v>
+        <v>10.96856646561553</v>
       </c>
       <c r="D21">
-        <v>15.40573963946376</v>
+        <v>14.50970110466656</v>
       </c>
       <c r="E21">
-        <v>16.83521726540108</v>
+        <v>15.6663245413124</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.677996220313467</v>
+        <v>2.08699792923522</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.50409158191085</v>
+        <v>16.79815815204647</v>
       </c>
       <c r="J21">
-        <v>9.400114441215152</v>
+        <v>6.394176511238933</v>
       </c>
       <c r="K21">
-        <v>12.35154976179449</v>
+        <v>15.42865814763509</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.79059002949682</v>
+        <v>20.34555627308476</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.36675220777914</v>
+        <v>17.6573291530572</v>
       </c>
       <c r="C22">
-        <v>7.721905645845268</v>
+        <v>11.37721057185353</v>
       </c>
       <c r="D22">
-        <v>15.48023105026057</v>
+        <v>14.93709627311044</v>
       </c>
       <c r="E22">
-        <v>16.91162391516815</v>
+        <v>16.12445875464148</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.676409631648926</v>
+        <v>2.082052810534004</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.45140489077476</v>
+        <v>16.79519846962651</v>
       </c>
       <c r="J22">
-        <v>9.401644068249857</v>
+        <v>6.491254849511647</v>
       </c>
       <c r="K22">
-        <v>12.50230295301295</v>
+        <v>15.97228910557433</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>28.75926927292727</v>
+        <v>20.52137425606432</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.25234094040163</v>
+        <v>17.32951009324299</v>
       </c>
       <c r="C23">
-        <v>7.645645825169808</v>
+        <v>11.16056813260951</v>
       </c>
       <c r="D23">
-        <v>15.44025390387617</v>
+        <v>14.70955915357474</v>
       </c>
       <c r="E23">
-        <v>16.87059598861889</v>
+        <v>15.88049608854147</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.677250855043952</v>
+        <v>2.0846869283865</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.47913316719083</v>
+        <v>16.79512031217059</v>
       </c>
       <c r="J23">
-        <v>9.400715141752194</v>
+        <v>6.439249266868155</v>
       </c>
       <c r="K23">
-        <v>12.42192674850813</v>
+        <v>15.68410507749466</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>28.77549830380915</v>
+        <v>20.4256908701601</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.81196619850746</v>
+        <v>16.03658518465392</v>
       </c>
       <c r="C24">
-        <v>7.35163349344325</v>
+        <v>10.30770789059137</v>
       </c>
       <c r="D24">
-        <v>15.29376990672095</v>
+        <v>13.83554303461699</v>
       </c>
       <c r="E24">
-        <v>16.72075965119455</v>
+        <v>14.94471570021494</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.680559500722518</v>
+        <v>2.094784445816456</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.592739554959</v>
+        <v>16.83003325494838</v>
       </c>
       <c r="J24">
-        <v>9.399673032124889</v>
+        <v>6.246545658214763</v>
       </c>
       <c r="K24">
-        <v>12.11594432180985</v>
+        <v>14.54925980891585</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>28.84765632575028</v>
+        <v>20.10296982259967</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.32457102875365</v>
+        <v>14.52995735444046</v>
       </c>
       <c r="C25">
-        <v>7.025194103123983</v>
+        <v>9.316695921259956</v>
       </c>
       <c r="D25">
-        <v>15.14687586751298</v>
+        <v>12.86912693422992</v>
       </c>
       <c r="E25">
-        <v>16.57158375756452</v>
+        <v>13.91277342695982</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.684392378059873</v>
+        <v>2.10597893495584</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.73354979375063</v>
+        <v>16.93546167184242</v>
       </c>
       <c r="J25">
-        <v>9.403860005482887</v>
+        <v>6.047943332482128</v>
       </c>
       <c r="K25">
-        <v>11.78427963935967</v>
+        <v>13.23076602186817</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>28.94822905914208</v>
+        <v>19.83387849844967</v>
       </c>
     </row>
   </sheetData>
